--- a/PSI 연습용.xlsx
+++ b/PSI 연습용.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fragr\Dropbox\GitHub\fasteR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIET\Documents\GitHub\fasteR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF660DA-4A78-4648-A564-28F2D18C2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9AE2CB23-4CB3-4AFA-BFC9-5BA1CFC45153}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="2월" sheetId="2" r:id="rId1"/>
@@ -164,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,16 +555,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0389CA5-F8C1-4C0F-82B4-6CDF024713AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:T1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
@@ -689,7 +688,7 @@
         <v>97.446808510638292</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2022</v>
       </c>
@@ -747,7 +746,7 @@
         <v>101.1627906976744</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -809,7 +808,7 @@
         <v>101.31578947368421</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2022</v>
       </c>
@@ -867,7 +866,7 @@
         <v>82.692307692307693</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2022</v>
       </c>
@@ -925,7 +924,7 @@
         <v>126.1904761904762</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2022</v>
       </c>
@@ -983,7 +982,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>126.92307692307691</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>76.19047619047619</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>78.260869565217391</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>77.27272727272728</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2022</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>105.88235294117651</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2022</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2022</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>104.7619047619048</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2022</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>103.8095238095238</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>92.307692307692307</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>103.8095238095238</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>89.411764705882348</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
@@ -1888,16 +1887,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E410BF08-14D7-4C4E-BF55-13BC5A92B73D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>79.752066115702476</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2022</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>83.132530120481931</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2022</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>70.370370370370381</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2022</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2022</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>70.833333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>85.714285714285722</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>108.695652173913</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>61.538461538461533</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2022</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>88.571428571428569</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2022</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>82.608695652173907</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>70.588235294117652</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2022</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>114.28571428571431</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>43.478260869565219</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>95.238095238095241</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2022</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>78.84615384615384</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>80.434782608695656</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>78.84615384615384</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>80.459770114942529</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
